--- a/Beneficiados Plan de Obras x sexo Tabla2.xlsx
+++ b/Beneficiados Plan de Obras x sexo Tabla2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Juan\DirPMOEM\PobSexo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AC0AE7-5965-4CAB-B5F2-4C73AF99481F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAF1C51-F332-42E8-8E04-F8B65BD97B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="130" windowWidth="17900" windowHeight="9640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9640" yWindow="40" windowWidth="17900" windowHeight="9640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen x Municipio" sheetId="5" r:id="rId1"/>
@@ -39,21 +39,12 @@
     <t>QUILMES</t>
   </si>
   <si>
-    <t>ALMTE BROWN</t>
-  </si>
-  <si>
     <t>LOMAS DE ZAMORA</t>
   </si>
   <si>
     <t>ESCOBAR</t>
   </si>
   <si>
-    <t>LANUS</t>
-  </si>
-  <si>
-    <t>ITUZAINGO</t>
-  </si>
-  <si>
     <t>EZEIZA</t>
   </si>
   <si>
@@ -63,9 +54,6 @@
     <t>LA MATANZA</t>
   </si>
   <si>
-    <t>MORON</t>
-  </si>
-  <si>
     <t>MALVINAS ARGENTINAS</t>
   </si>
   <si>
@@ -78,30 +66,18 @@
     <t>AVELLANEDA</t>
   </si>
   <si>
-    <t>ESTEBAN ECHEVERRIA</t>
-  </si>
-  <si>
     <t>HURLINGHAM</t>
   </si>
   <si>
-    <t>SAN MARTIN</t>
-  </si>
-  <si>
     <t>PILAR</t>
   </si>
   <si>
-    <t>PRESIDENTE PERON</t>
-  </si>
-  <si>
     <t>MERLO</t>
   </si>
   <si>
     <t>MORENO</t>
   </si>
   <si>
-    <t>CABA</t>
-  </si>
-  <si>
     <t>Municipio</t>
   </si>
   <si>
@@ -111,12 +87,6 @@
     <t>SAN ISIDRO</t>
   </si>
   <si>
-    <t>JOSE C PAZ</t>
-  </si>
-  <si>
-    <t>VICENTE LOPEZ</t>
-  </si>
-  <si>
     <t>Agua Cantidad Obras</t>
   </si>
   <si>
@@ -139,6 +109,36 @@
   </si>
   <si>
     <t>Cloaca Beneficiarios Total</t>
+  </si>
+  <si>
+    <t>C.A.B.A.</t>
+  </si>
+  <si>
+    <t>SAN MARTÍN</t>
+  </si>
+  <si>
+    <t>VICENTE LÓPEZ</t>
+  </si>
+  <si>
+    <t>ITUZAINGÓ</t>
+  </si>
+  <si>
+    <t>MORÓN</t>
+  </si>
+  <si>
+    <t>LANÚS</t>
+  </si>
+  <si>
+    <t>ALMIRANTE BROWN</t>
+  </si>
+  <si>
+    <t>ESTEBAN ECHEVERRÍA</t>
+  </si>
+  <si>
+    <t>JOSÉ C. PAZ</t>
+  </si>
+  <si>
+    <t>PRESIDENTE PERÓN</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,36 +514,36 @@
   <sheetData>
     <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
         <v>7</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1">
         <v>7</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1">
         <v>10</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1">
         <v>4</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1">
         <v>4</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
